--- a/data/panelapp/au/Leukodystrophy_Superpanel.xlsx
+++ b/data/panelapp/au/Leukodystrophy_Superpanel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E277"/>
+  <dimension ref="A1:F279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150146</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150157</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150160</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150163</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -561,12 +586,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ACBD5</t>
+          <t>ABHD16A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>acyl-CoA binding domain containing 5</t>
+          <t>abhydrolase domain containing 16A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -577,6 +602,11 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150166</t>
         </is>
       </c>
     </row>
@@ -586,12 +616,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ACOX1</t>
+          <t>ACBD5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>acyl-CoA oxidase 1</t>
+          <t>acyl-CoA binding domain containing 5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -602,6 +632,11 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150168</t>
         </is>
       </c>
     </row>
@@ -611,12 +646,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ADAR</t>
+          <t>ACOX1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>adenosine deaminase, RNA specific</t>
+          <t>acyl-CoA oxidase 1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -627,6 +662,11 @@
       <c r="E8" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150171</t>
         </is>
       </c>
     </row>
@@ -654,6 +694,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150173</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -661,12 +706,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AIFM1</t>
+          <t>ADAR</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>apoptosis inducing factor mitochondria associated 1</t>
+          <t>adenosine deaminase, RNA specific</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -677,6 +722,11 @@
       <c r="E10" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150176</t>
         </is>
       </c>
     </row>
@@ -686,12 +736,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AIMP1</t>
+          <t>AIFM1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>aminoacyl tRNA synthetase complex interacting multifunctional protein 1</t>
+          <t>apoptosis inducing factor mitochondria associated 1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -702,6 +752,11 @@
       <c r="E11" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150179</t>
         </is>
       </c>
     </row>
@@ -711,12 +766,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ALDH3A2</t>
+          <t>AIMP1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>aldehyde dehydrogenase 3 family member A2</t>
+          <t>aminoacyl tRNA synthetase complex interacting multifunctional protein 1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -727,6 +782,11 @@
       <c r="E12" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150181</t>
         </is>
       </c>
     </row>
@@ -754,6 +814,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150183</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -761,12 +826,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AP4B1</t>
+          <t>ALDH3A2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>adaptor related protein complex 4 beta 1 subunit</t>
+          <t>aldehyde dehydrogenase 3 family member A2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -777,6 +842,11 @@
       <c r="E14" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150186</t>
         </is>
       </c>
     </row>
@@ -786,12 +856,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>APOPT1</t>
+          <t>AP4B1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>apoptogenic 1, mitochondrial</t>
+          <t>adaptor related protein complex 4 beta 1 subunit</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -802,6 +872,11 @@
       <c r="E15" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150188</t>
         </is>
       </c>
     </row>
@@ -811,12 +886,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ARSA</t>
+          <t>APOPT1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>arylsulfatase A</t>
+          <t>apoptogenic 1, mitochondrial</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -827,6 +902,11 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150190</t>
         </is>
       </c>
     </row>
@@ -854,6 +934,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150193</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -861,12 +946,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ASPA</t>
+          <t>ARSA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>aspartoacylase</t>
+          <t>arylsulfatase A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -877,6 +962,11 @@
       <c r="E18" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150195</t>
         </is>
       </c>
     </row>
@@ -904,6 +994,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150198</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -911,12 +1006,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATP7A</t>
+          <t>ASPA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ATPase copper transporting alpha</t>
+          <t>aspartoacylase</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -927,6 +1022,11 @@
       <c r="E20" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150201</t>
         </is>
       </c>
     </row>
@@ -936,12 +1036,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AUH</t>
+          <t>ATP7A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AU RNA binding methylglutaconyl-CoA hydratase</t>
+          <t>ATPase copper transporting alpha</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -952,6 +1052,11 @@
       <c r="E21" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150203</t>
         </is>
       </c>
     </row>
@@ -979,6 +1084,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150205</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -986,12 +1096,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BCAP31</t>
+          <t>AUH</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>B-cell receptor associated protein 31</t>
+          <t>AU RNA binding methylglutaconyl-CoA hydratase</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1002,6 +1112,11 @@
       <c r="E23" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150208</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1126,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BCS1L</t>
+          <t>BCAP31</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BCS1 homolog, ubiquinol-cytochrome c reductase complex chaperone</t>
+          <t>B-cell receptor associated protein 31</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1027,6 +1142,11 @@
       <c r="E24" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150210</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1156,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BOLA3</t>
+          <t>BCS1L</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>bolA family member 3</t>
+          <t>BCS1 homolog, ubiquinol-cytochrome c reductase complex chaperone</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1052,6 +1172,11 @@
       <c r="E25" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150212</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1186,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C2orf69</t>
+          <t>BOLA3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>chromosome 2 open reading frame 69</t>
+          <t>bolA family member 3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1077,6 +1202,11 @@
       <c r="E26" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150215</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1216,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CIC</t>
+          <t>C2orf69</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>capicua transcriptional repressor</t>
+          <t>chromosome 2 open reading frame 69</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1102,6 +1232,11 @@
       <c r="E27" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150218</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1246,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CLCN2</t>
+          <t>CIC</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>chloride voltage-gated channel 2</t>
+          <t>capicua transcriptional repressor</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1127,6 +1262,11 @@
       <c r="E28" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150220</t>
         </is>
       </c>
     </row>
@@ -1154,6 +1294,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150222</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1161,12 +1306,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CLDN11</t>
+          <t>CLCN2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>claudin 11</t>
+          <t>chloride voltage-gated channel 2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1177,6 +1322,11 @@
       <c r="E30" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150225</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1336,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CLPP</t>
+          <t>CLDN11</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>caseinolytic mitochondrial matrix peptidase proteolytic subunit</t>
+          <t>claudin 11</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1202,6 +1352,11 @@
       <c r="E31" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150227</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1366,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CNTNAP1</t>
+          <t>CLPP</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>contactin associated protein 1</t>
+          <t>caseinolytic mitochondrial matrix peptidase proteolytic subunit</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1227,6 +1382,11 @@
       <c r="E32" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150229</t>
         </is>
       </c>
     </row>
@@ -1236,12 +1396,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>COA7</t>
+          <t>CNTNAP1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>cytochrome c oxidase assembly factor 7 (putative)</t>
+          <t>contactin associated protein 1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1252,6 +1412,11 @@
       <c r="E33" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150232</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1426,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COL4A1</t>
+          <t>COA7</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>collagen type IV alpha 1 chain</t>
+          <t>cytochrome c oxidase assembly factor 7 (putative)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1277,6 +1442,11 @@
       <c r="E34" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150234</t>
         </is>
       </c>
     </row>
@@ -1286,12 +1456,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>COLGALT1</t>
+          <t>COL4A1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>collagen beta(1-O)galactosyltransferase 1</t>
+          <t>collagen type IV alpha 1 chain</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1302,6 +1472,11 @@
       <c r="E35" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150237</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1486,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COQ2</t>
+          <t>COLGALT1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>coenzyme Q2, polyprenyltransferase</t>
+          <t>collagen beta(1-O)galactosyltransferase 1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1327,6 +1502,11 @@
       <c r="E36" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150239</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1516,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COX10</t>
+          <t>COQ2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>COX10, heme A:farnesyltransferase cytochrome c oxidase assembly factor</t>
+          <t>coenzyme Q2, polyprenyltransferase</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1352,6 +1532,11 @@
       <c r="E37" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150241</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1546,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COX15</t>
+          <t>COX10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>COX15, cytochrome c oxidase assembly homolog</t>
+          <t>COX10, heme A:farnesyltransferase cytochrome c oxidase assembly factor</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1377,6 +1562,11 @@
       <c r="E38" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150244</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1576,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CSF1R</t>
+          <t>COX15</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>colony stimulating factor 1 receptor</t>
+          <t>COX15, cytochrome c oxidase assembly homolog</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1402,6 +1592,11 @@
       <c r="E39" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150246</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1606,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CTC1</t>
+          <t>CSF1R</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CST telomere replication complex component 1</t>
+          <t>colony stimulating factor 1 receptor</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1427,6 +1622,11 @@
       <c r="E40" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150249</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1636,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CTSA</t>
+          <t>CTC1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>cathepsin A</t>
+          <t>CST telomere replication complex component 1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1452,6 +1652,11 @@
       <c r="E41" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150251</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1666,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CYP27A1</t>
+          <t>CTSA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 27 subfamily A member 1</t>
+          <t>cathepsin A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1477,6 +1682,11 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150254</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1696,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CYP7B1</t>
+          <t>CYP27A1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 7 subfamily B member 1</t>
+          <t>cytochrome P450 family 27 subfamily A member 1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1502,6 +1712,11 @@
       <c r="E43" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150257</t>
         </is>
       </c>
     </row>
@@ -1529,6 +1744,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150259</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1536,12 +1756,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>D2HGDH</t>
+          <t>CYP7B1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>D-2-hydroxyglutarate dehydrogenase</t>
+          <t>cytochrome P450 family 7 subfamily B member 1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1552,6 +1772,11 @@
       <c r="E45" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150262</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1786,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DARS</t>
+          <t>D2HGDH</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>aspartyl-tRNA synthetase</t>
+          <t>D-2-hydroxyglutarate dehydrogenase</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1577,6 +1802,11 @@
       <c r="E46" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150264</t>
         </is>
       </c>
     </row>
@@ -1604,6 +1834,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150266</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1611,12 +1846,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DARS2</t>
+          <t>DARS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>aspartyl-tRNA synthetase 2, mitochondrial</t>
+          <t>aspartyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1627,6 +1862,11 @@
       <c r="E48" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150268</t>
         </is>
       </c>
     </row>
@@ -1654,6 +1894,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150271</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1661,12 +1906,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DCAF17</t>
+          <t>DARS2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DDB1 and CUL4 associated factor 17</t>
+          <t>aspartyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1677,6 +1922,11 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150273</t>
         </is>
       </c>
     </row>
@@ -1704,6 +1954,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150275</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1711,12 +1966,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DEGS1</t>
+          <t>DCAF17</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>delta 4-desaturase, sphingolipid 1</t>
+          <t>DDB1 and CUL4 associated factor 17</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1727,6 +1982,11 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150278</t>
         </is>
       </c>
     </row>
@@ -1736,12 +1996,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DGUOK</t>
+          <t>DEGS1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>deoxyguanosine kinase</t>
+          <t>delta 4-desaturase, sphingolipid 1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1752,6 +2012,11 @@
       <c r="E53" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150280</t>
         </is>
       </c>
     </row>
@@ -1761,12 +2026,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DPYD</t>
+          <t>DGUOK</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>dihydropyrimidine dehydrogenase</t>
+          <t>deoxyguanosine kinase</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1777,6 +2042,11 @@
       <c r="E54" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150283</t>
         </is>
       </c>
     </row>
@@ -1786,12 +2056,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>EARS2</t>
+          <t>DPYD</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>glutamyl-tRNA synthetase 2, mitochondrial</t>
+          <t>dihydropyrimidine dehydrogenase</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1802,6 +2072,11 @@
       <c r="E55" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150285</t>
         </is>
       </c>
     </row>
@@ -1811,12 +2086,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>EIF2AK2</t>
+          <t>EARS2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>eukaryotic translation initiation factor 2 alpha kinase 2</t>
+          <t>glutamyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1827,6 +2102,11 @@
       <c r="E56" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150288</t>
         </is>
       </c>
     </row>
@@ -1836,12 +2116,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>EIF2B1</t>
+          <t>EIF2AK2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>eukaryotic translation initiation factor 2B subunit alpha</t>
+          <t>eukaryotic translation initiation factor 2 alpha kinase 2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1852,6 +2132,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150290</t>
         </is>
       </c>
     </row>
@@ -1879,6 +2164,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150292</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1886,12 +2176,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>EIF2B2</t>
+          <t>EIF2B1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>eukaryotic translation initiation factor 2B subunit beta</t>
+          <t>eukaryotic translation initiation factor 2B subunit alpha</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1902,6 +2192,11 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150295</t>
         </is>
       </c>
     </row>
@@ -1929,6 +2224,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150297</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1936,12 +2236,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>EIF2B3</t>
+          <t>EIF2B2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>eukaryotic translation initiation factor 2B subunit gamma</t>
+          <t>eukaryotic translation initiation factor 2B subunit beta</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1952,6 +2252,11 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150299</t>
         </is>
       </c>
     </row>
@@ -1979,6 +2284,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150302</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1986,12 +2296,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>EIF2B4</t>
+          <t>EIF2B3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>eukaryotic translation initiation factor 2B subunit delta</t>
+          <t>eukaryotic translation initiation factor 2B subunit gamma</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2002,6 +2312,11 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150304</t>
         </is>
       </c>
     </row>
@@ -2029,6 +2344,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150307</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2036,12 +2356,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EIF2B5</t>
+          <t>EIF2B4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>eukaryotic translation initiation factor 2B subunit epsilon</t>
+          <t>eukaryotic translation initiation factor 2B subunit delta</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2052,6 +2372,11 @@
       <c r="E65" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150309</t>
         </is>
       </c>
     </row>
@@ -2079,6 +2404,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150312</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2086,12 +2416,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>EPRS</t>
+          <t>EIF2B5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>glutamyl-prolyl-tRNA synthetase</t>
+          <t>eukaryotic translation initiation factor 2B subunit epsilon</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2102,6 +2432,11 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150315</t>
         </is>
       </c>
     </row>
@@ -2129,6 +2464,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150317</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2136,12 +2476,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ERCC6</t>
+          <t>EPRS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ERCC excision repair 6, chromatin remodeling factor</t>
+          <t>glutamyl-prolyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2152,6 +2492,11 @@
       <c r="E69" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150320</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2506,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ERCC8</t>
+          <t>ERCC6</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ERCC excision repair 8, CSA ubiquitin ligase complex subunit</t>
+          <t>ERCC excision repair 6, chromatin remodeling factor</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2177,6 +2522,11 @@
       <c r="E70" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150322</t>
         </is>
       </c>
     </row>
@@ -2186,12 +2536,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ETFDH</t>
+          <t>ERCC8</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>electron transfer flavoprotein dehydrogenase</t>
+          <t>ERCC excision repair 8, CSA ubiquitin ligase complex subunit</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2202,6 +2552,11 @@
       <c r="E71" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150324</t>
         </is>
       </c>
     </row>
@@ -2211,12 +2566,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FA2H</t>
+          <t>ETFDH</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>fatty acid 2-hydroxylase</t>
+          <t>electron transfer flavoprotein dehydrogenase</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2227,6 +2582,11 @@
       <c r="E72" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150327</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2596,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FAM126A</t>
+          <t>FA2H</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>family with sequence similarity 126 member A</t>
+          <t>fatty acid 2-hydroxylase</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2252,6 +2612,11 @@
       <c r="E73" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150329</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2626,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FIG4</t>
+          <t>FAM126A</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>FIG4 phosphoinositide 5-phosphatase</t>
+          <t>family with sequence similarity 126 member A</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2277,6 +2642,11 @@
       <c r="E74" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150331</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2656,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FOLR1</t>
+          <t>FIG4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>folate receptor 1</t>
+          <t>FIG4 phosphoinositide 5-phosphatase</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2302,6 +2672,11 @@
       <c r="E75" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150334</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2686,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FUCA1</t>
+          <t>FOLR1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>alpha-L-fucosidase 1</t>
+          <t>folate receptor 1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2327,6 +2702,11 @@
       <c r="E76" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150336</t>
         </is>
       </c>
     </row>
@@ -2336,12 +2716,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GALC</t>
+          <t>FUCA1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>galactosylceramidase</t>
+          <t>alpha-L-fucosidase 1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2352,6 +2732,11 @@
       <c r="E77" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150338</t>
         </is>
       </c>
     </row>
@@ -2379,6 +2764,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150343</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2386,12 +2776,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GBE1</t>
+          <t>GALC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1,4-alpha-glucan branching enzyme 1</t>
+          <t>galactosylceramidase</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2402,6 +2792,11 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150346</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2806,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GFAP</t>
+          <t>GBE1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>glial fibrillary acidic protein</t>
+          <t>1,4-alpha-glucan branching enzyme 1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2427,6 +2822,11 @@
       <c r="E80" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150348</t>
         </is>
       </c>
     </row>
@@ -2454,6 +2854,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150350</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2461,12 +2866,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GFM1</t>
+          <t>GFAP</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>G elongation factor mitochondrial 1</t>
+          <t>glial fibrillary acidic protein</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2477,6 +2882,11 @@
       <c r="E82" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150353</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2896,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GJA1</t>
+          <t>GFM1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>gap junction protein alpha 1</t>
+          <t>G elongation factor mitochondrial 1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2502,6 +2912,11 @@
       <c r="E83" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150355</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2926,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GJB1</t>
+          <t>GJA1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>gap junction protein beta 1</t>
+          <t>gap junction protein alpha 1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2527,6 +2942,11 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150357</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2956,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GJC2</t>
+          <t>GJB1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>gap junction protein gamma 2</t>
+          <t>gap junction protein beta 1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2552,6 +2972,11 @@
       <c r="E85" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150360</t>
         </is>
       </c>
     </row>
@@ -2579,6 +3004,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150362</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2586,12 +3016,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GLA</t>
+          <t>GJC2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>galactosidase alpha</t>
+          <t>gap junction protein gamma 2</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2602,6 +3032,11 @@
       <c r="E87" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150364</t>
         </is>
       </c>
     </row>
@@ -2611,12 +3046,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GLB1</t>
+          <t>GLA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>galactosidase beta 1</t>
+          <t>galactosidase alpha</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2627,6 +3062,11 @@
       <c r="E88" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150367</t>
         </is>
       </c>
     </row>
@@ -2654,6 +3094,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150369</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2661,12 +3106,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GLRX5</t>
+          <t>GLB1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>glutaredoxin 5</t>
+          <t>galactosidase beta 1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2677,6 +3122,11 @@
       <c r="E90" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150372</t>
         </is>
       </c>
     </row>
@@ -2686,12 +3136,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>HEPACAM</t>
+          <t>GLRX5</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>hepatic and glial cell adhesion molecule</t>
+          <t>glutaredoxin 5</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2702,6 +3152,11 @@
       <c r="E91" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150374</t>
         </is>
       </c>
     </row>
@@ -2729,6 +3184,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150376</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2736,12 +3196,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HEXA</t>
+          <t>HEPACAM</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>hexosaminidase subunit alpha</t>
+          <t>hepatic and glial cell adhesion molecule</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2752,6 +3212,11 @@
       <c r="E93" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150379</t>
         </is>
       </c>
     </row>
@@ -2779,6 +3244,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150382</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2786,12 +3256,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>HIKESHI</t>
+          <t>HEXA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Hikeshi, heat shock protein nuclear import factor</t>
+          <t>hexosaminidase subunit alpha</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2802,6 +3272,11 @@
       <c r="E95" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150385</t>
         </is>
       </c>
     </row>
@@ -2811,12 +3286,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>HMGCL</t>
+          <t>HIKESHI</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3-hydroxymethyl-3-methylglutaryl-CoA lyase</t>
+          <t>Hikeshi, heat shock protein nuclear import factor</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2827,6 +3302,11 @@
       <c r="E96" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150387</t>
         </is>
       </c>
     </row>
@@ -2836,12 +3316,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HPDL</t>
+          <t>HMGCL</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>4-hydroxyphenylpyruvate dioxygenase like</t>
+          <t>3-hydroxymethyl-3-methylglutaryl-CoA lyase</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2852,6 +3332,11 @@
       <c r="E97" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150390</t>
         </is>
       </c>
     </row>
@@ -2861,12 +3346,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>HSD17B4</t>
+          <t>HPDL</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>hydroxysteroid 17-beta dehydrogenase 4</t>
+          <t>4-hydroxyphenylpyruvate dioxygenase like</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2877,6 +3362,11 @@
       <c r="E98" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150392</t>
         </is>
       </c>
     </row>
@@ -2886,12 +3376,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>HSPD1</t>
+          <t>HSD17B4</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>heat shock protein family D (Hsp60) member 1</t>
+          <t>hydroxysteroid 17-beta dehydrogenase 4</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2902,6 +3392,11 @@
       <c r="E99" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150395</t>
         </is>
       </c>
     </row>
@@ -2911,12 +3406,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>HTRA1</t>
+          <t>HSPD1</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HtrA serine peptidase 1</t>
+          <t>heat shock protein family D (Hsp60) member 1</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2927,6 +3422,11 @@
       <c r="E100" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150397</t>
         </is>
       </c>
     </row>
@@ -2936,12 +3436,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>IBA57</t>
+          <t>HTRA1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>IBA57 homolog, iron-sulfur cluster assembly</t>
+          <t>HtrA serine peptidase 1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2952,6 +3452,11 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150399</t>
         </is>
       </c>
     </row>
@@ -2961,12 +3466,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>IFIH1</t>
+          <t>IBA57</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>interferon induced with helicase C domain 1</t>
+          <t>IBA57 homolog, iron-sulfur cluster assembly</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2977,6 +3482,11 @@
       <c r="E102" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150402</t>
         </is>
       </c>
     </row>
@@ -2986,12 +3496,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ISCA1</t>
+          <t>IFIH1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>iron-sulfur cluster assembly 1</t>
+          <t>interferon induced with helicase C domain 1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3002,6 +3512,11 @@
       <c r="E103" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150404</t>
         </is>
       </c>
     </row>
@@ -3011,12 +3526,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ISCA2</t>
+          <t>ISCA1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>iron-sulfur cluster assembly 2</t>
+          <t>iron-sulfur cluster assembly 1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3027,6 +3542,11 @@
       <c r="E104" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150406</t>
         </is>
       </c>
     </row>
@@ -3036,12 +3556,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>KARS</t>
+          <t>ISCA2</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>lysyl-tRNA synthetase</t>
+          <t>iron-sulfur cluster assembly 2</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3052,6 +3572,11 @@
       <c r="E105" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150409</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3586,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KIF5A</t>
+          <t>KARS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>kinesin family member 5A</t>
+          <t>lysyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3077,6 +3602,11 @@
       <c r="E106" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150411</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3616,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>L2HGDH</t>
+          <t>KIF5A</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>L-2-hydroxyglutarate dehydrogenase</t>
+          <t>kinesin family member 5A</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3102,6 +3632,11 @@
       <c r="E107" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150413</t>
         </is>
       </c>
     </row>
@@ -3129,6 +3664,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150416</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3136,12 +3676,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>LARS2</t>
+          <t>L2HGDH</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>leucyl-tRNA synthetase 2, mitochondrial</t>
+          <t>L-2-hydroxyglutarate dehydrogenase</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3152,6 +3692,11 @@
       <c r="E109" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150418</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3706,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>LIG3</t>
+          <t>LARS2</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DNA ligase 3</t>
+          <t>leucyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3177,6 +3722,11 @@
       <c r="E110" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150422</t>
         </is>
       </c>
     </row>
@@ -3204,6 +3754,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150425</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3211,12 +3766,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>LMNB1</t>
+          <t>LIG3</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>lamin B1</t>
+          <t>DNA ligase 3</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3227,6 +3782,11 @@
       <c r="E112" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150427</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3796,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>LYRM7</t>
+          <t>LMNB1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>LYR motif containing 7</t>
+          <t>lamin B1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3252,6 +3812,11 @@
       <c r="E113" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150430</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3826,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MAN2B1</t>
+          <t>LYRM7</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>mannosidase alpha class 2B member 1</t>
+          <t>LYR motif containing 7</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3277,6 +3842,11 @@
       <c r="E114" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150432</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3856,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MCOLN1</t>
+          <t>MAN2B1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>mucolipin 1</t>
+          <t>mannosidase alpha class 2B member 1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3302,6 +3872,11 @@
       <c r="E115" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150435</t>
         </is>
       </c>
     </row>
@@ -3311,12 +3886,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MEF2C</t>
+          <t>MCOLN1</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>myocyte enhancer factor 2C</t>
+          <t>mucolipin 1</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3327,6 +3902,11 @@
       <c r="E116" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150437</t>
         </is>
       </c>
     </row>
@@ -3336,12 +3916,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MLC1</t>
+          <t>MEF2C</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>megalencephalic leukoencephalopathy with subcortical cysts 1</t>
+          <t>myocyte enhancer factor 2C</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3352,6 +3932,11 @@
       <c r="E117" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150439</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3946,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MTFMT</t>
+          <t>MLC1</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>mitochondrial methionyl-tRNA formyltransferase</t>
+          <t>megalencephalic leukoencephalopathy with subcortical cysts 1</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3377,6 +3962,11 @@
       <c r="E118" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150442</t>
         </is>
       </c>
     </row>
@@ -3386,12 +3976,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MTHFR</t>
+          <t>MTFMT</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>methylenetetrahydrofolate reductase</t>
+          <t>mitochondrial methionyl-tRNA formyltransferase</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3402,6 +3992,11 @@
       <c r="E119" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150444</t>
         </is>
       </c>
     </row>
@@ -3411,12 +4006,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NAXD</t>
+          <t>MTHFR</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>NAD(P)HX dehydratase</t>
+          <t>methylenetetrahydrofolate reductase</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3427,6 +4022,11 @@
       <c r="E120" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150447</t>
         </is>
       </c>
     </row>
@@ -3436,12 +4036,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NAXE</t>
+          <t>NAXD</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>NAD(P)HX epimerase</t>
+          <t>NAD(P)HX dehydratase</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3452,6 +4052,11 @@
       <c r="E121" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150449</t>
         </is>
       </c>
     </row>
@@ -3461,12 +4066,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NDUFAF1</t>
+          <t>NAXE</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase complex assembly factor 1</t>
+          <t>NAD(P)HX epimerase</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3477,6 +4082,11 @@
       <c r="E122" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150452</t>
         </is>
       </c>
     </row>
@@ -3486,12 +4096,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NDUFAF3</t>
+          <t>NDUFAF1</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase complex assembly factor 3</t>
+          <t>NADH:ubiquinone oxidoreductase complex assembly factor 1</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3502,6 +4112,11 @@
       <c r="E123" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150454</t>
         </is>
       </c>
     </row>
@@ -3511,12 +4126,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NDUFS1</t>
+          <t>NDUFAF3</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase core subunit S1</t>
+          <t>NADH:ubiquinone oxidoreductase complex assembly factor 3</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3527,6 +4142,11 @@
       <c r="E124" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150456</t>
         </is>
       </c>
     </row>
@@ -3536,12 +4156,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NDUFS2</t>
+          <t>NDUFS1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase core subunit S2</t>
+          <t>NADH:ubiquinone oxidoreductase core subunit S1</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3552,6 +4172,11 @@
       <c r="E125" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150459</t>
         </is>
       </c>
     </row>
@@ -3561,12 +4186,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NDUFS4</t>
+          <t>NDUFS2</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit S4</t>
+          <t>NADH:ubiquinone oxidoreductase core subunit S2</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3577,6 +4202,11 @@
       <c r="E126" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150461</t>
         </is>
       </c>
     </row>
@@ -3586,12 +4216,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NDUFS7</t>
+          <t>NDUFS4</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase core subunit S7</t>
+          <t>NADH:ubiquinone oxidoreductase subunit S4</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3602,6 +4232,11 @@
       <c r="E127" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150463</t>
         </is>
       </c>
     </row>
@@ -3611,12 +4246,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NDUFS8</t>
+          <t>NDUFS7</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase core subunit S8</t>
+          <t>NADH:ubiquinone oxidoreductase core subunit S7</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3627,6 +4262,11 @@
       <c r="E128" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150466</t>
         </is>
       </c>
     </row>
@@ -3636,12 +4276,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NDUFV1</t>
+          <t>NDUFS8</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase core subunit V1</t>
+          <t>NADH:ubiquinone oxidoreductase core subunit S8</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3652,6 +4292,11 @@
       <c r="E129" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150468</t>
         </is>
       </c>
     </row>
@@ -3661,12 +4306,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NFU1</t>
+          <t>NDUFV1</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>NFU1 iron-sulfur cluster scaffold</t>
+          <t>NADH:ubiquinone oxidoreductase core subunit V1</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3677,6 +4322,11 @@
       <c r="E130" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150472</t>
         </is>
       </c>
     </row>
@@ -3686,12 +4336,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NKX6-2</t>
+          <t>NFU1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>NK6 homeobox 2</t>
+          <t>NFU1 iron-sulfur cluster scaffold</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3702,6 +4352,11 @@
       <c r="E131" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150475</t>
         </is>
       </c>
     </row>
@@ -3711,12 +4366,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NOTCH3</t>
+          <t>NKX6-2</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>notch 3</t>
+          <t>NK6 homeobox 2</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3727,6 +4382,11 @@
       <c r="E132" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150477</t>
         </is>
       </c>
     </row>
@@ -3736,12 +4396,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NPC1</t>
+          <t>NOTCH3</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>NPC intracellular cholesterol transporter 1</t>
+          <t>notch 3</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3752,6 +4412,11 @@
       <c r="E133" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150480</t>
         </is>
       </c>
     </row>
@@ -3779,6 +4444,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150482</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3786,12 +4456,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NUBPL</t>
+          <t>NPC1</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>nucleotide binding protein like</t>
+          <t>NPC intracellular cholesterol transporter 1</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3802,6 +4472,11 @@
       <c r="E135" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150485</t>
         </is>
       </c>
     </row>
@@ -3811,12 +4486,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PAFAH1B1</t>
+          <t>NUBPL</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>platelet activating factor acetylhydrolase 1b regulatory subunit 1</t>
+          <t>nucleotide binding protein like</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3827,6 +4502,11 @@
       <c r="E136" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150487</t>
         </is>
       </c>
     </row>
@@ -3836,12 +4516,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PAH</t>
+          <t>PAFAH1B1</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>phenylalanine hydroxylase</t>
+          <t>platelet activating factor acetylhydrolase 1b regulatory subunit 1</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3852,6 +4532,11 @@
       <c r="E137" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150489</t>
         </is>
       </c>
     </row>
@@ -3861,12 +4546,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>PAH</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>pyruvate carboxylase</t>
+          <t>phenylalanine hydroxylase</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3877,6 +4562,11 @@
       <c r="E138" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150492</t>
         </is>
       </c>
     </row>
@@ -3886,12 +4576,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PEX1</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 1</t>
+          <t>pyruvate carboxylase</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3902,6 +4592,11 @@
       <c r="E139" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150494</t>
         </is>
       </c>
     </row>
@@ -3911,12 +4606,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PEX10</t>
+          <t>PEX1</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 10</t>
+          <t>peroxisomal biogenesis factor 1</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3927,6 +4622,11 @@
       <c r="E140" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150497</t>
         </is>
       </c>
     </row>
@@ -3936,12 +4636,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PEX11B</t>
+          <t>PEX10</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 11 beta</t>
+          <t>peroxisomal biogenesis factor 10</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3952,6 +4652,11 @@
       <c r="E141" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150499</t>
         </is>
       </c>
     </row>
@@ -3961,12 +4666,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PEX12</t>
+          <t>PEX11B</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 12</t>
+          <t>peroxisomal biogenesis factor 11 beta</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3977,6 +4682,11 @@
       <c r="E142" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150501</t>
         </is>
       </c>
     </row>
@@ -3986,12 +4696,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PEX13</t>
+          <t>PEX12</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 13</t>
+          <t>peroxisomal biogenesis factor 12</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4002,6 +4712,11 @@
       <c r="E143" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150504</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4726,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PEX14</t>
+          <t>PEX13</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 14</t>
+          <t>peroxisomal biogenesis factor 13</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4027,6 +4742,11 @@
       <c r="E144" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150506</t>
         </is>
       </c>
     </row>
@@ -4036,12 +4756,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PEX16</t>
+          <t>PEX14</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 16</t>
+          <t>peroxisomal biogenesis factor 14</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4052,6 +4772,11 @@
       <c r="E145" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150508</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4786,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PEX19</t>
+          <t>PEX16</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 19</t>
+          <t>peroxisomal biogenesis factor 16</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4077,6 +4802,11 @@
       <c r="E146" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150511</t>
         </is>
       </c>
     </row>
@@ -4086,12 +4816,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PEX2</t>
+          <t>PEX19</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 2</t>
+          <t>peroxisomal biogenesis factor 19</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4102,6 +4832,11 @@
       <c r="E147" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150513</t>
         </is>
       </c>
     </row>
@@ -4111,12 +4846,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PEX26</t>
+          <t>PEX2</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 26</t>
+          <t>peroxisomal biogenesis factor 2</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4127,6 +4862,11 @@
       <c r="E148" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150515</t>
         </is>
       </c>
     </row>
@@ -4136,12 +4876,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PEX3</t>
+          <t>PEX26</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 3</t>
+          <t>peroxisomal biogenesis factor 26</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4152,6 +4892,11 @@
       <c r="E149" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150518</t>
         </is>
       </c>
     </row>
@@ -4161,12 +4906,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>PEX5</t>
+          <t>PEX3</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 5</t>
+          <t>peroxisomal biogenesis factor 3</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4177,6 +4922,11 @@
       <c r="E150" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150520</t>
         </is>
       </c>
     </row>
@@ -4186,12 +4936,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PEX6</t>
+          <t>PEX5</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 6</t>
+          <t>peroxisomal biogenesis factor 5</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4202,6 +4952,11 @@
       <c r="E151" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150523</t>
         </is>
       </c>
     </row>
@@ -4211,12 +4966,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>PEX7</t>
+          <t>PEX6</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 7</t>
+          <t>peroxisomal biogenesis factor 6</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4227,6 +4982,11 @@
       <c r="E152" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150525</t>
         </is>
       </c>
     </row>
@@ -4236,12 +4996,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>PI4KA</t>
+          <t>PEX7</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>phosphatidylinositol 4-kinase alpha</t>
+          <t>peroxisomal biogenesis factor 7</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4252,6 +5012,11 @@
       <c r="E153" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150528</t>
         </is>
       </c>
     </row>
@@ -4261,12 +5026,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>PLP1</t>
+          <t>PI4KA</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>proteolipid protein 1</t>
+          <t>phosphatidylinositol 4-kinase alpha</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4277,6 +5042,11 @@
       <c r="E154" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150530</t>
         </is>
       </c>
     </row>
@@ -4304,6 +5074,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150532</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4311,12 +5086,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>POLG</t>
+          <t>PLP1</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DNA polymerase gamma, catalytic subunit</t>
+          <t>proteolipid protein 1</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4327,6 +5102,11 @@
       <c r="E156" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150534</t>
         </is>
       </c>
     </row>
@@ -4354,6 +5134,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150537</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4361,12 +5146,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>POLR1C</t>
+          <t>POLG</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>RNA polymerase I subunit C</t>
+          <t>DNA polymerase gamma, catalytic subunit</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4377,6 +5162,11 @@
       <c r="E158" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150539</t>
         </is>
       </c>
     </row>
@@ -4404,6 +5194,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150542</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4411,12 +5206,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>POLR3A</t>
+          <t>POLR1C</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>RNA polymerase III subunit A</t>
+          <t>RNA polymerase I subunit C</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4427,6 +5222,11 @@
       <c r="E160" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150544</t>
         </is>
       </c>
     </row>
@@ -4454,6 +5254,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150546</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4461,12 +5266,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>POLR3B</t>
+          <t>POLR3A</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>RNA polymerase III subunit B</t>
+          <t>RNA polymerase III subunit A</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4477,6 +5282,11 @@
       <c r="E162" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150549</t>
         </is>
       </c>
     </row>
@@ -4504,6 +5314,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150551</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4511,12 +5326,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PPP1R21</t>
+          <t>POLR3B</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>protein phosphatase 1 regulatory subunit 21</t>
+          <t>RNA polymerase III subunit B</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4527,6 +5342,11 @@
       <c r="E164" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150554</t>
         </is>
       </c>
     </row>
@@ -4536,12 +5356,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PSAP</t>
+          <t>PPP1R21</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>prosaposin</t>
+          <t>protein phosphatase 1 regulatory subunit 21</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4552,6 +5372,11 @@
       <c r="E165" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150556</t>
         </is>
       </c>
     </row>
@@ -4579,6 +5404,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150558</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4586,12 +5416,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PTEN</t>
+          <t>PSAP</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>phosphatase and tensin homolog</t>
+          <t>prosaposin</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4602,6 +5432,11 @@
       <c r="E167" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150561</t>
         </is>
       </c>
     </row>
@@ -4629,6 +5464,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150564</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4636,12 +5476,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PYCR2</t>
+          <t>PTEN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>pyrroline-5-carboxylate reductase 2</t>
+          <t>phosphatase and tensin homolog</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4652,6 +5492,11 @@
       <c r="E169" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150566</t>
         </is>
       </c>
     </row>
@@ -4661,12 +5506,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>RAB11B</t>
+          <t>PYCR2</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>RAB11B, member RAS oncogene family</t>
+          <t>pyrroline-5-carboxylate reductase 2</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4677,6 +5522,11 @@
       <c r="E170" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150583</t>
         </is>
       </c>
     </row>
@@ -4686,12 +5536,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>RARS</t>
+          <t>RAB11B</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>arginyl-tRNA synthetase</t>
+          <t>RAB11B, member RAS oncogene family</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4702,6 +5552,11 @@
       <c r="E171" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150620</t>
         </is>
       </c>
     </row>
@@ -4711,12 +5566,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RNASEH2A</t>
+          <t>RARS</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ribonuclease H2 subunit A</t>
+          <t>arginyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4727,6 +5582,11 @@
       <c r="E172" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150623</t>
         </is>
       </c>
     </row>
@@ -4754,6 +5614,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150650</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4761,12 +5626,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RNASEH2B</t>
+          <t>RNASEH2A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>ribonuclease H2 subunit B</t>
+          <t>ribonuclease H2 subunit A</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4777,6 +5642,11 @@
       <c r="E174" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150661</t>
         </is>
       </c>
     </row>
@@ -4804,6 +5674,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150665</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4811,12 +5686,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RNASEH2C</t>
+          <t>RNASEH2B</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>ribonuclease H2 subunit C</t>
+          <t>ribonuclease H2 subunit B</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4827,6 +5702,11 @@
       <c r="E176" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150668</t>
         </is>
       </c>
     </row>
@@ -4854,6 +5734,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150670</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4861,12 +5746,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>RNASET2</t>
+          <t>RNASEH2C</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ribonuclease T2</t>
+          <t>ribonuclease H2 subunit C</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4877,6 +5762,11 @@
       <c r="E178" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150672</t>
         </is>
       </c>
     </row>
@@ -4886,12 +5776,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>RNF220</t>
+          <t>RNASET2</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ring finger protein 220</t>
+          <t>ribonuclease T2</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4902,6 +5792,11 @@
       <c r="E179" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150675</t>
         </is>
       </c>
     </row>
@@ -4911,12 +5806,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RPIA</t>
+          <t>RNF220</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ribose 5-phosphate isomerase A</t>
+          <t>ring finger protein 220</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4927,6 +5822,11 @@
       <c r="E180" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150677</t>
         </is>
       </c>
     </row>
@@ -4954,6 +5854,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150680</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4961,12 +5866,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>RRM2B</t>
+          <t>RPIA</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ribonucleotide reductase regulatory TP53 inducible subunit M2B</t>
+          <t>ribose 5-phosphate isomerase A</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4977,6 +5882,11 @@
       <c r="E182" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150682</t>
         </is>
       </c>
     </row>
@@ -4986,12 +5896,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SAMHD1</t>
+          <t>RRM2B</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SAM and HD domain containing deoxynucleoside triphosphate triphosphohydrolase 1</t>
+          <t>ribonucleotide reductase regulatory TP53 inducible subunit M2B</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5002,6 +5912,11 @@
       <c r="E183" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150684</t>
         </is>
       </c>
     </row>
@@ -5029,6 +5944,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150687</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5036,12 +5956,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SCO1</t>
+          <t>SAMHD1</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SCO1, cytochrome c oxidase assembly protein</t>
+          <t>SAM and HD domain containing deoxynucleoside triphosphate triphosphohydrolase 1</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5052,6 +5972,11 @@
       <c r="E185" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150689</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5986,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SCO2</t>
+          <t>SCO1</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SCO2, cytochrome c oxidase assembly protein</t>
+          <t>SCO1, cytochrome c oxidase assembly protein</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5077,6 +6002,11 @@
       <c r="E186" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150691</t>
         </is>
       </c>
     </row>
@@ -5086,12 +6016,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SCP2</t>
+          <t>SCO2</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>sterol carrier protein 2</t>
+          <t>SCO2, cytochrome c oxidase assembly protein</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5102,6 +6032,11 @@
       <c r="E187" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150694</t>
         </is>
       </c>
     </row>
@@ -5111,12 +6046,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SDHA</t>
+          <t>SCP2</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>succinate dehydrogenase complex flavoprotein subunit A</t>
+          <t>sterol carrier protein 2</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5127,6 +6062,11 @@
       <c r="E188" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150696</t>
         </is>
       </c>
     </row>
@@ -5136,12 +6076,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SDHAF1</t>
+          <t>SDHA</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>succinate dehydrogenase complex assembly factor 1</t>
+          <t>succinate dehydrogenase complex flavoprotein subunit A</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5152,6 +6092,11 @@
       <c r="E189" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150699</t>
         </is>
       </c>
     </row>
@@ -5161,12 +6106,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SDHB</t>
+          <t>SDHAF1</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>succinate dehydrogenase complex iron sulfur subunit B</t>
+          <t>succinate dehydrogenase complex assembly factor 1</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5177,6 +6122,11 @@
       <c r="E190" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150701</t>
         </is>
       </c>
     </row>
@@ -5186,12 +6136,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SLC16A2</t>
+          <t>SDHB</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>solute carrier family 16 member 2</t>
+          <t>succinate dehydrogenase complex iron sulfur subunit B</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5202,6 +6152,11 @@
       <c r="E191" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150704</t>
         </is>
       </c>
     </row>
@@ -5211,12 +6166,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SLC17A5</t>
+          <t>SLC16A2</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>solute carrier family 17 member 5</t>
+          <t>solute carrier family 16 member 2</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5227,6 +6182,11 @@
       <c r="E192" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150706</t>
         </is>
       </c>
     </row>
@@ -5254,6 +6214,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150708</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5261,12 +6226,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SLC25A12</t>
+          <t>SLC17A5</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>solute carrier family 25 member 12</t>
+          <t>solute carrier family 17 member 5</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5277,6 +6242,11 @@
       <c r="E194" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150711</t>
         </is>
       </c>
     </row>
@@ -5286,12 +6256,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>SLC25A4</t>
+          <t>SLC25A12</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>solute carrier family 25 member 4</t>
+          <t>solute carrier family 25 member 12</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5302,6 +6272,11 @@
       <c r="E195" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150713</t>
         </is>
       </c>
     </row>
@@ -5311,12 +6286,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SNORD118</t>
+          <t>SLC25A4</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>small nucleolar RNA, C/D box 118</t>
+          <t>solute carrier family 25 member 4</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5327,6 +6302,11 @@
       <c r="E196" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150716</t>
         </is>
       </c>
     </row>
@@ -5354,6 +6334,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150718</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5361,12 +6346,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SOX10</t>
+          <t>SNORD118</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>SRY-box 10</t>
+          <t>small nucleolar RNA, C/D box 118</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5377,6 +6362,11 @@
       <c r="E198" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150721</t>
         </is>
       </c>
     </row>
@@ -5386,12 +6376,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SPART</t>
+          <t>SOX10</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>spartin</t>
+          <t>SRY-box 10</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5402,6 +6392,11 @@
       <c r="E199" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150723</t>
         </is>
       </c>
     </row>
@@ -5411,12 +6406,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SPG11</t>
+          <t>SPART</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SPG11, spatacsin vesicle trafficking associated</t>
+          <t>spartin</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5427,6 +6422,11 @@
       <c r="E200" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150726</t>
         </is>
       </c>
     </row>
@@ -5454,6 +6454,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150728</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5461,12 +6466,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SPG21</t>
+          <t>SPG11</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SPG21, maspardin</t>
+          <t>SPG11, spatacsin vesicle trafficking associated</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5477,6 +6482,11 @@
       <c r="E202" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150731</t>
         </is>
       </c>
     </row>
@@ -5486,12 +6496,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SUCLA2</t>
+          <t>SPG21</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>succinate-CoA ligase ADP-forming beta subunit</t>
+          <t>SPG21, maspardin</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5502,6 +6512,11 @@
       <c r="E203" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150734</t>
         </is>
       </c>
     </row>
@@ -5511,12 +6526,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>SUMF1</t>
+          <t>SUCLA2</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>sulfatase modifying factor 1</t>
+          <t>succinate-CoA ligase ADP-forming beta subunit</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5527,6 +6542,11 @@
       <c r="E204" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150737</t>
         </is>
       </c>
     </row>
@@ -5536,12 +6556,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SURF1</t>
+          <t>SUMF1</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>SURF1, cytochrome c oxidase assembly factor</t>
+          <t>sulfatase modifying factor 1</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5552,6 +6572,11 @@
       <c r="E205" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150739</t>
         </is>
       </c>
     </row>
@@ -5561,12 +6586,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TACO1</t>
+          <t>SURF1</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>translational activator of cytochrome c oxidase I</t>
+          <t>SURF1, cytochrome c oxidase assembly factor</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5577,6 +6602,11 @@
       <c r="E206" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150741</t>
         </is>
       </c>
     </row>
@@ -5586,12 +6616,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TMEM106B</t>
+          <t>TACO1</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>transmembrane protein 106B</t>
+          <t>translational activator of cytochrome c oxidase I</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5602,6 +6632,11 @@
       <c r="E207" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150744</t>
         </is>
       </c>
     </row>
@@ -5611,12 +6646,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TMEM63A</t>
+          <t>TMEM106B</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>transmembrane protein 63A</t>
+          <t>transmembrane protein 106B</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5627,6 +6662,11 @@
       <c r="E208" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150746</t>
         </is>
       </c>
     </row>
@@ -5636,12 +6676,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TREM2</t>
+          <t>TMEM63A</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>triggering receptor expressed on myeloid cells 2</t>
+          <t>transmembrane protein 63A</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5652,6 +6692,11 @@
       <c r="E209" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150749</t>
         </is>
       </c>
     </row>
@@ -5661,12 +6706,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TREX1</t>
+          <t>TREM2</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>three prime repair exonuclease 1</t>
+          <t>triggering receptor expressed on myeloid cells 2</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5677,6 +6722,11 @@
       <c r="E210" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150751</t>
         </is>
       </c>
     </row>
@@ -5704,6 +6754,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150753</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5711,12 +6766,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TUBB4A</t>
+          <t>TREX1</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>tubulin beta 4A class IVa</t>
+          <t>three prime repair exonuclease 1</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5727,6 +6782,11 @@
       <c r="E212" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150756</t>
         </is>
       </c>
     </row>
@@ -5754,6 +6814,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150758</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5761,12 +6826,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TUFM</t>
+          <t>TUBB4A</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Tu translation elongation factor, mitochondrial</t>
+          <t>tubulin beta 4A class IVa</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5777,6 +6842,11 @@
       <c r="E214" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150760</t>
         </is>
       </c>
     </row>
@@ -5786,12 +6856,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TYMP</t>
+          <t>TUFM</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>thymidine phosphorylase</t>
+          <t>Tu translation elongation factor, mitochondrial</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5802,6 +6872,11 @@
       <c r="E215" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150763</t>
         </is>
       </c>
     </row>
@@ -5829,6 +6904,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150765</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5836,12 +6916,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TYROBP</t>
+          <t>TYMP</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>TYRO protein tyrosine kinase binding protein</t>
+          <t>thymidine phosphorylase</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5852,6 +6932,11 @@
       <c r="E217" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150767</t>
         </is>
       </c>
     </row>
@@ -5861,12 +6946,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>UFM1</t>
+          <t>TYROBP</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>ubiquitin fold modifier 1</t>
+          <t>TYRO protein tyrosine kinase binding protein</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5877,6 +6962,11 @@
       <c r="E218" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150770</t>
         </is>
       </c>
     </row>
@@ -5886,12 +6976,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>VPS11</t>
+          <t>UFM1</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>VPS11, CORVET/HOPS core subunit</t>
+          <t>ubiquitin fold modifier 1</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5902,6 +6992,11 @@
       <c r="E219" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150772</t>
         </is>
       </c>
     </row>
@@ -5911,12 +7006,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>WARS2</t>
+          <t>VPS11</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>tryptophanyl tRNA synthetase 2, mitochondrial</t>
+          <t>VPS11, CORVET/HOPS core subunit</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5927,6 +7022,11 @@
       <c r="E220" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150774</t>
         </is>
       </c>
     </row>
@@ -5936,12 +7036,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ZFYVE26</t>
+          <t>WARS2</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>zinc finger FYVE-type containing 26</t>
+          <t>tryptophanyl tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5952,6 +7052,11 @@
       <c r="E221" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150777</t>
         </is>
       </c>
     </row>
@@ -5979,6 +7084,11 @@
           <t>Leukodystrophy_Superpanel</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150779</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -5986,22 +7096,27 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>AARS</t>
+          <t>ZFYVE26</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>alanyl-tRNA synthetase</t>
+          <t>zinc finger FYVE-type containing 26</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150781</t>
         </is>
       </c>
     </row>
@@ -6011,12 +7126,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ACER3</t>
+          <t>AARS</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>alkaline ceramidase 3</t>
+          <t>alanyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6027,6 +7142,11 @@
       <c r="E224" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150784</t>
         </is>
       </c>
     </row>
@@ -6036,12 +7156,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ATP7B</t>
+          <t>ACER3</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>ATPase copper transporting beta</t>
+          <t>alkaline ceramidase 3</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6052,6 +7172,11 @@
       <c r="E225" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150786</t>
         </is>
       </c>
     </row>
@@ -6061,12 +7186,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>CNP</t>
+          <t>ATP11A</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2',3'-cyclic nucleotide 3' phosphodiesterase</t>
+          <t>ATPase phospholipid transporting 11A</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6077,6 +7202,11 @@
       <c r="E226" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150788</t>
         </is>
       </c>
     </row>
@@ -6086,12 +7216,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>CTC1</t>
+          <t>ATP7B</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>CST telomere replication complex component 1</t>
+          <t>ATPase copper transporting beta</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6102,6 +7232,11 @@
       <c r="E227" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150791</t>
         </is>
       </c>
     </row>
@@ -6111,12 +7246,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>CYP2U1</t>
+          <t>CNP</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 2 subfamily U member 1</t>
+          <t>2',3'-cyclic nucleotide 3' phosphodiesterase</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6127,6 +7262,11 @@
       <c r="E228" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150793</t>
         </is>
       </c>
     </row>
@@ -6136,12 +7276,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ERCC2</t>
+          <t>CTC1</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>ERCC excision repair 2, TFIIH core complex helicase subunit</t>
+          <t>CST telomere replication complex component 1</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6152,6 +7292,11 @@
       <c r="E229" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150795</t>
         </is>
       </c>
     </row>
@@ -6161,12 +7306,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FDX2</t>
+          <t>CYP2U1</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>ferredoxin 2</t>
+          <t>cytochrome P450 family 2 subfamily U member 1</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6177,6 +7322,11 @@
       <c r="E230" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150798</t>
         </is>
       </c>
     </row>
@@ -6186,12 +7336,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>GCDH</t>
+          <t>ERCC2</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>glutaryl-CoA dehydrogenase</t>
+          <t>ERCC excision repair 2, TFIIH core complex helicase subunit</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6202,6 +7352,11 @@
       <c r="E231" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150800</t>
         </is>
       </c>
     </row>
@@ -6211,12 +7366,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>GFPT1</t>
+          <t>FDX2</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>glutamine--fructose-6-phosphate transaminase 1</t>
+          <t>ferredoxin 2</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6227,6 +7382,11 @@
       <c r="E232" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150803</t>
         </is>
       </c>
     </row>
@@ -6236,12 +7396,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>HMBS</t>
+          <t>GCDH</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>hydroxymethylbilane synthase</t>
+          <t>glutaryl-CoA dehydrogenase</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6252,6 +7412,11 @@
       <c r="E233" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150805</t>
         </is>
       </c>
     </row>
@@ -6261,12 +7426,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>LAMB1</t>
+          <t>GFPT1</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>laminin subunit beta 1</t>
+          <t>glutamine--fructose-6-phosphate transaminase 1</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6277,6 +7442,11 @@
       <c r="E234" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150808</t>
         </is>
       </c>
     </row>
@@ -6286,12 +7456,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MCOLN1</t>
+          <t>HMBS</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>mucolipin 1</t>
+          <t>hydroxymethylbilane synthase</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6302,6 +7472,11 @@
       <c r="E235" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150811</t>
         </is>
       </c>
     </row>
@@ -6311,12 +7486,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>MLC1</t>
+          <t>LAMB1</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>megalencephalic leukoencephalopathy with subcortical cysts 1</t>
+          <t>laminin subunit beta 1</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6327,6 +7502,11 @@
       <c r="E236" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150813</t>
         </is>
       </c>
     </row>
@@ -6336,12 +7516,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NDUFA2</t>
+          <t>MCOLN1</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit A2</t>
+          <t>mucolipin 1</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6352,6 +7532,11 @@
       <c r="E237" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150816</t>
         </is>
       </c>
     </row>
@@ -6361,12 +7546,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NPC2</t>
+          <t>MLC1</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>NPC intracellular cholesterol transporter 2</t>
+          <t>megalencephalic leukoencephalopathy with subcortical cysts 1</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6377,6 +7562,11 @@
       <c r="E238" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150818</t>
         </is>
       </c>
     </row>
@@ -6386,12 +7576,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>PLEKHG2</t>
+          <t>NDUFA2</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>pleckstrin homology and RhoGEF domain containing G2</t>
+          <t>NADH:ubiquinone oxidoreductase subunit A2</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6402,6 +7592,11 @@
       <c r="E239" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150820</t>
         </is>
       </c>
     </row>
@@ -6411,12 +7606,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>POLG2</t>
+          <t>NPC2</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>DNA polymerase gamma 2, accessory subunit</t>
+          <t>NPC intracellular cholesterol transporter 2</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6427,6 +7622,11 @@
       <c r="E240" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150823</t>
         </is>
       </c>
     </row>
@@ -6436,12 +7636,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>POLR3K</t>
+          <t>PLEKHG2</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>RNA polymerase III subunit K</t>
+          <t>pleckstrin homology and RhoGEF domain containing G2</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6452,6 +7652,11 @@
       <c r="E241" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150825</t>
         </is>
       </c>
     </row>
@@ -6461,12 +7666,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>PPT1</t>
+          <t>POLG2</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>palmitoyl-protein thioesterase 1</t>
+          <t>DNA polymerase gamma 2, accessory subunit</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6477,6 +7682,11 @@
       <c r="E242" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150827</t>
         </is>
       </c>
     </row>
@@ -6486,12 +7696,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>RNASET2</t>
+          <t>POLR3K</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>ribonuclease T2</t>
+          <t>RNA polymerase III subunit K</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6502,6 +7712,11 @@
       <c r="E243" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150830</t>
         </is>
       </c>
     </row>
@@ -6511,12 +7726,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>RNF216</t>
+          <t>PPT1</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>ring finger protein 216</t>
+          <t>palmitoyl-protein thioesterase 1</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -6527,6 +7742,11 @@
       <c r="E244" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150832</t>
         </is>
       </c>
     </row>
@@ -6536,12 +7756,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>SLC13A5</t>
+          <t>RNASET2</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>solute carrier family 13 member 5</t>
+          <t>ribonuclease T2</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -6552,6 +7772,11 @@
       <c r="E245" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150835</t>
         </is>
       </c>
     </row>
@@ -6561,12 +7786,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>SPAST</t>
+          <t>RNF216</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>spastin</t>
+          <t>ring finger protein 216</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -6577,6 +7802,11 @@
       <c r="E246" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150837</t>
         </is>
       </c>
     </row>
@@ -6586,12 +7816,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>SPG7</t>
+          <t>SLC13A5</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>SPG7, paraplegin matrix AAA peptidase subunit</t>
+          <t>solute carrier family 13 member 5</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -6602,6 +7832,11 @@
       <c r="E247" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150840</t>
         </is>
       </c>
     </row>
@@ -6611,12 +7846,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TOMM70</t>
+          <t>SPAST</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>translocase of outer mitochondrial membrane 70</t>
+          <t>spastin</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -6627,6 +7862,11 @@
       <c r="E248" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150842</t>
         </is>
       </c>
     </row>
@@ -6636,12 +7876,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TWNK</t>
+          <t>SPG7</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>twinkle mtDNA helicase</t>
+          <t>SPG7, paraplegin matrix AAA peptidase subunit</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -6652,6 +7892,11 @@
       <c r="E249" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150845</t>
         </is>
       </c>
     </row>
@@ -6661,12 +7906,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TWNK</t>
+          <t>TOMM70</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>twinkle mtDNA helicase</t>
+          <t>translocase of outer mitochondrial membrane 70</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -6677,6 +7922,11 @@
       <c r="E250" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150847</t>
         </is>
       </c>
     </row>
@@ -6686,22 +7936,27 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>AIMP2</t>
+          <t>TWNK</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>aminoacyl tRNA synthetase complex interacting multifunctional protein 2</t>
+          <t>twinkle mtDNA helicase</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150850</t>
         </is>
       </c>
     </row>
@@ -6711,22 +7966,27 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>APOPT1</t>
+          <t>TWNK</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>apoptogenic 1, mitochondrial</t>
+          <t>twinkle mtDNA helicase</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150852</t>
         </is>
       </c>
     </row>
@@ -6736,12 +7996,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ATPAF2</t>
+          <t>AIMP2</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>ATP synthase mitochondrial F1 complex assembly factor 2</t>
+          <t>aminoacyl tRNA synthetase complex interacting multifunctional protein 2</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -6752,6 +8012,11 @@
       <c r="E253" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150854</t>
         </is>
       </c>
     </row>
@@ -6761,12 +8026,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>COL4A2</t>
+          <t>APOPT1</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>collagen type IV alpha 2 chain</t>
+          <t>apoptogenic 1, mitochondrial</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6777,6 +8042,11 @@
       <c r="E254" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150857</t>
         </is>
       </c>
     </row>
@@ -6786,12 +8056,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>COQ8A</t>
+          <t>ATPAF2</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>coenzyme Q8A</t>
+          <t>ATP synthase mitochondrial F1 complex assembly factor 2</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6802,6 +8072,11 @@
       <c r="E255" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150859</t>
         </is>
       </c>
     </row>
@@ -6811,12 +8086,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>COQ9</t>
+          <t>COL4A2</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>coenzyme Q9</t>
+          <t>collagen type IV alpha 2 chain</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6827,6 +8102,11 @@
       <c r="E256" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150861</t>
         </is>
       </c>
     </row>
@@ -6836,12 +8116,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>EARS2</t>
+          <t>COQ8A</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>glutamyl-tRNA synthetase 2, mitochondrial</t>
+          <t>coenzyme Q8A</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6852,6 +8132,11 @@
       <c r="E257" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150864</t>
         </is>
       </c>
     </row>
@@ -6861,12 +8146,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ERCC3</t>
+          <t>COQ9</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>ERCC excision repair 3, TFIIH core complex helicase subunit</t>
+          <t>coenzyme Q9</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6877,6 +8162,11 @@
       <c r="E258" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150866</t>
         </is>
       </c>
     </row>
@@ -6886,12 +8176,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>GAN</t>
+          <t>EARS2</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>gigaxonin</t>
+          <t>glutamyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -6902,6 +8192,11 @@
       <c r="E259" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150869</t>
         </is>
       </c>
     </row>
@@ -6911,12 +8206,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>GTF2H5</t>
+          <t>ERCC3</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>general transcription factor IIH subunit 5</t>
+          <t>ERCC excision repair 3, TFIIH core complex helicase subunit</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6927,6 +8222,11 @@
       <c r="E260" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150871</t>
         </is>
       </c>
     </row>
@@ -6936,12 +8236,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>LAMB1</t>
+          <t>GAN</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>laminin subunit beta 1</t>
+          <t>gigaxonin</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6952,6 +8252,11 @@
       <c r="E261" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150873</t>
         </is>
       </c>
     </row>
@@ -6961,12 +8266,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>LSM7</t>
+          <t>GTF2H5</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>LSM7 homolog, U6 small nuclear RNA and mRNA degradation associated</t>
+          <t>general transcription factor IIH subunit 5</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6977,6 +8282,11 @@
       <c r="E262" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150876</t>
         </is>
       </c>
     </row>
@@ -6986,12 +8296,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>MARS</t>
+          <t>LAMB1</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>methionyl-tRNA synthetase</t>
+          <t>laminin subunit beta 1</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7002,6 +8312,11 @@
       <c r="E263" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150878</t>
         </is>
       </c>
     </row>
@@ -7011,12 +8326,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>MPLKIP</t>
+          <t>LSM7</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>M-phase specific PLK1 interacting protein</t>
+          <t>LSM7 homolog, U6 small nuclear RNA and mRNA degradation associated</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7027,6 +8342,11 @@
       <c r="E264" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150880</t>
         </is>
       </c>
     </row>
@@ -7036,12 +8356,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>MRPS16</t>
+          <t>MARS</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>mitochondrial ribosomal protein S16</t>
+          <t>methionyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7052,6 +8372,11 @@
       <c r="E265" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150883</t>
         </is>
       </c>
     </row>
@@ -7061,12 +8386,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>OCLN</t>
+          <t>MPLKIP</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>occludin</t>
+          <t>M-phase specific PLK1 interacting protein</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7077,6 +8402,11 @@
       <c r="E266" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150885</t>
         </is>
       </c>
     </row>
@@ -7086,12 +8416,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>OCRL</t>
+          <t>MRPS16</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>OCRL, inositol polyphosphate-5-phosphatase</t>
+          <t>mitochondrial ribosomal protein S16</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7102,6 +8432,11 @@
       <c r="E267" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150887</t>
         </is>
       </c>
     </row>
@@ -7111,12 +8446,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>PHGDH</t>
+          <t>OCLN</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>phosphoglycerate dehydrogenase</t>
+          <t>occludin</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7127,6 +8462,11 @@
       <c r="E268" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150890</t>
         </is>
       </c>
     </row>
@@ -7136,12 +8476,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>POLR1A</t>
+          <t>OCRL</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>RNA polymerase I subunit A</t>
+          <t>OCRL, inositol polyphosphate-5-phosphatase</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7152,6 +8492,11 @@
       <c r="E269" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150892</t>
         </is>
       </c>
     </row>
@@ -7161,12 +8506,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>PRF1</t>
+          <t>PHGDH</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>perforin 1</t>
+          <t>phosphoglycerate dehydrogenase</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7177,6 +8522,11 @@
       <c r="E270" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150895</t>
         </is>
       </c>
     </row>
@@ -7186,12 +8536,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>PSAT1</t>
+          <t>POLR1A</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>phosphoserine aminotransferase 1</t>
+          <t>RNA polymerase I subunit A</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7202,6 +8552,11 @@
       <c r="E271" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150897</t>
         </is>
       </c>
     </row>
@@ -7211,12 +8566,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>RPS6KA3</t>
+          <t>PRF1</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>ribosomal protein S6 kinase A3</t>
+          <t>perforin 1</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7227,6 +8582,11 @@
       <c r="E272" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150900</t>
         </is>
       </c>
     </row>
@@ -7236,12 +8596,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>SLC25A1</t>
+          <t>PSAT1</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>solute carrier family 25 member 1</t>
+          <t>phosphoserine aminotransferase 1</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7252,6 +8612,11 @@
       <c r="E273" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150902</t>
         </is>
       </c>
     </row>
@@ -7261,12 +8626,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>STX11</t>
+          <t>RPS6KA3</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>syntaxin 11</t>
+          <t>ribosomal protein S6 kinase A3</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -7277,6 +8642,11 @@
       <c r="E274" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150904</t>
         </is>
       </c>
     </row>
@@ -7286,12 +8656,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>STXBP2</t>
+          <t>SLC25A1</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>syntaxin binding protein 2</t>
+          <t>solute carrier family 25 member 1</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7302,6 +8672,11 @@
       <c r="E275" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150907</t>
         </is>
       </c>
     </row>
@@ -7311,12 +8686,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>TACO1</t>
+          <t>STX11</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>translational activator of cytochrome c oxidase I</t>
+          <t>syntaxin 11</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -7327,6 +8702,11 @@
       <c r="E276" t="inlineStr">
         <is>
           <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150909</t>
         </is>
       </c>
     </row>
@@ -7336,22 +8716,87 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
+          <t>STXBP2</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>syntaxin binding protein 2</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150912</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>TACO1</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>translational activator of cytochrome c oxidase I</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150914</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
           <t>UNC13D</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>unc-13 homolog D</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr">
+      <c r="D279" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>Leukodystrophy_Superpanel</t>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:28.150917</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Leukodystrophy_Superpanel.xlsx
+++ b/data/panelapp/au/Leukodystrophy_Superpanel.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150146</t>
+          <t>2021-10-05 14:34:20.962831</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150157</t>
+          <t>2021-10-05 14:34:20.962837</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150160</t>
+          <t>2021-10-05 14:34:20.962840</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150163</t>
+          <t>2021-10-05 14:34:20.962842</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150166</t>
+          <t>2021-10-05 14:34:20.962845</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150168</t>
+          <t>2021-10-05 14:34:20.962847</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150171</t>
+          <t>2021-10-05 14:34:20.962849</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150173</t>
+          <t>2021-10-05 14:34:20.962851</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150176</t>
+          <t>2021-10-05 14:34:20.962854</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150179</t>
+          <t>2021-10-05 14:34:20.962856</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150181</t>
+          <t>2021-10-05 14:34:20.962858</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150183</t>
+          <t>2021-10-05 14:34:20.962860</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150186</t>
+          <t>2021-10-05 14:34:20.962862</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150188</t>
+          <t>2021-10-05 14:34:20.962864</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150190</t>
+          <t>2021-10-05 14:34:20.962866</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150193</t>
+          <t>2021-10-05 14:34:20.962869</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150195</t>
+          <t>2021-10-05 14:34:20.962871</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150198</t>
+          <t>2021-10-05 14:34:20.962873</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150201</t>
+          <t>2021-10-05 14:34:20.962875</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150203</t>
+          <t>2021-10-05 14:34:20.962878</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150205</t>
+          <t>2021-10-05 14:34:20.962880</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150208</t>
+          <t>2021-10-05 14:34:20.962882</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150210</t>
+          <t>2021-10-05 14:34:20.962884</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150212</t>
+          <t>2021-10-05 14:34:20.962886</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150215</t>
+          <t>2021-10-05 14:34:20.962889</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150218</t>
+          <t>2021-10-05 14:34:20.962891</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150220</t>
+          <t>2021-10-05 14:34:20.962893</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150222</t>
+          <t>2021-10-05 14:34:20.962895</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150225</t>
+          <t>2021-10-05 14:34:20.962897</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150227</t>
+          <t>2021-10-05 14:34:20.962899</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150229</t>
+          <t>2021-10-05 14:34:20.962902</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150232</t>
+          <t>2021-10-05 14:34:20.962904</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150234</t>
+          <t>2021-10-05 14:34:20.962906</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150237</t>
+          <t>2021-10-05 14:34:20.962908</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150239</t>
+          <t>2021-10-05 14:34:20.962911</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150241</t>
+          <t>2021-10-05 14:34:20.962913</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150244</t>
+          <t>2021-10-05 14:34:20.962915</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150246</t>
+          <t>2021-10-05 14:34:20.962917</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150249</t>
+          <t>2021-10-05 14:34:20.962919</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150251</t>
+          <t>2021-10-05 14:34:20.962921</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150254</t>
+          <t>2021-10-05 14:34:20.962924</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150257</t>
+          <t>2021-10-05 14:34:20.962926</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150259</t>
+          <t>2021-10-05 14:34:20.962928</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150262</t>
+          <t>2021-10-05 14:34:20.962931</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150264</t>
+          <t>2021-10-05 14:34:20.962933</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150266</t>
+          <t>2021-10-05 14:34:20.962935</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150268</t>
+          <t>2021-10-05 14:34:20.962937</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150271</t>
+          <t>2021-10-05 14:34:20.962939</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150273</t>
+          <t>2021-10-05 14:34:20.962941</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150275</t>
+          <t>2021-10-05 14:34:20.962943</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150278</t>
+          <t>2021-10-05 14:34:20.962945</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150280</t>
+          <t>2021-10-05 14:34:20.962948</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150283</t>
+          <t>2021-10-05 14:34:20.962950</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150285</t>
+          <t>2021-10-05 14:34:20.962952</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150288</t>
+          <t>2021-10-05 14:34:20.962954</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150290</t>
+          <t>2021-10-05 14:34:20.962957</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150292</t>
+          <t>2021-10-05 14:34:20.962959</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150295</t>
+          <t>2021-10-05 14:34:20.962961</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150297</t>
+          <t>2021-10-05 14:34:20.962963</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150299</t>
+          <t>2021-10-05 14:34:20.962965</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150302</t>
+          <t>2021-10-05 14:34:20.962967</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150304</t>
+          <t>2021-10-05 14:34:20.962970</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150307</t>
+          <t>2021-10-05 14:34:20.962972</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150309</t>
+          <t>2021-10-05 14:34:20.962974</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150312</t>
+          <t>2021-10-05 14:34:20.962977</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150315</t>
+          <t>2021-10-05 14:34:20.962979</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150317</t>
+          <t>2021-10-05 14:34:20.962981</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150320</t>
+          <t>2021-10-05 14:34:20.962984</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150322</t>
+          <t>2021-10-05 14:34:20.962986</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150324</t>
+          <t>2021-10-05 14:34:20.962988</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150327</t>
+          <t>2021-10-05 14:34:20.962990</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150329</t>
+          <t>2021-10-05 14:34:20.962992</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150331</t>
+          <t>2021-10-05 14:34:20.962994</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150334</t>
+          <t>2021-10-05 14:34:20.962997</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150336</t>
+          <t>2021-10-05 14:34:20.962999</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150338</t>
+          <t>2021-10-05 14:34:20.963001</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150343</t>
+          <t>2021-10-05 14:34:20.963005</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150346</t>
+          <t>2021-10-05 14:34:20.963008</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150348</t>
+          <t>2021-10-05 14:34:20.963010</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150350</t>
+          <t>2021-10-05 14:34:20.963012</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150353</t>
+          <t>2021-10-05 14:34:20.963015</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150355</t>
+          <t>2021-10-05 14:34:20.963017</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150357</t>
+          <t>2021-10-05 14:34:20.963019</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150360</t>
+          <t>2021-10-05 14:34:20.963021</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150362</t>
+          <t>2021-10-05 14:34:20.963023</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150364</t>
+          <t>2021-10-05 14:34:20.963026</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150367</t>
+          <t>2021-10-05 14:34:20.963028</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150369</t>
+          <t>2021-10-05 14:34:20.963030</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150372</t>
+          <t>2021-10-05 14:34:20.963032</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150374</t>
+          <t>2021-10-05 14:34:20.963034</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150376</t>
+          <t>2021-10-05 14:34:20.963036</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150379</t>
+          <t>2021-10-05 14:34:20.963039</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150382</t>
+          <t>2021-10-05 14:34:20.963042</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150385</t>
+          <t>2021-10-05 14:34:20.963044</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150387</t>
+          <t>2021-10-05 14:34:20.963047</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150390</t>
+          <t>2021-10-05 14:34:20.963049</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150392</t>
+          <t>2021-10-05 14:34:20.963051</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150395</t>
+          <t>2021-10-05 14:34:20.963053</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150397</t>
+          <t>2021-10-05 14:34:20.963055</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150399</t>
+          <t>2021-10-05 14:34:20.963058</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150402</t>
+          <t>2021-10-05 14:34:20.963060</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150404</t>
+          <t>2021-10-05 14:34:20.963062</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150406</t>
+          <t>2021-10-05 14:34:20.963064</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150409</t>
+          <t>2021-10-05 14:34:20.963066</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150411</t>
+          <t>2021-10-05 14:34:20.963068</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150413</t>
+          <t>2021-10-05 14:34:20.963071</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150416</t>
+          <t>2021-10-05 14:34:20.963073</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150418</t>
+          <t>2021-10-05 14:34:20.963075</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150422</t>
+          <t>2021-10-05 14:34:20.963079</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150425</t>
+          <t>2021-10-05 14:34:20.963081</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150427</t>
+          <t>2021-10-05 14:34:20.963083</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150430</t>
+          <t>2021-10-05 14:34:20.963086</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150432</t>
+          <t>2021-10-05 14:34:20.963088</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150435</t>
+          <t>2021-10-05 14:34:20.963090</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150437</t>
+          <t>2021-10-05 14:34:20.963092</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150439</t>
+          <t>2021-10-05 14:34:20.963094</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150442</t>
+          <t>2021-10-05 14:34:20.963096</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150444</t>
+          <t>2021-10-05 14:34:20.963098</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150447</t>
+          <t>2021-10-05 14:34:20.963101</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150449</t>
+          <t>2021-10-05 14:34:20.963103</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150452</t>
+          <t>2021-10-05 14:34:20.963105</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150454</t>
+          <t>2021-10-05 14:34:20.963107</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150456</t>
+          <t>2021-10-05 14:34:20.963109</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150459</t>
+          <t>2021-10-05 14:34:20.963111</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150461</t>
+          <t>2021-10-05 14:34:20.963113</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150463</t>
+          <t>2021-10-05 14:34:20.963115</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150466</t>
+          <t>2021-10-05 14:34:20.963118</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150468</t>
+          <t>2021-10-05 14:34:20.963120</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150472</t>
+          <t>2021-10-05 14:34:20.963123</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150475</t>
+          <t>2021-10-05 14:34:20.963126</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150477</t>
+          <t>2021-10-05 14:34:20.963128</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150480</t>
+          <t>2021-10-05 14:34:20.963130</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150482</t>
+          <t>2021-10-05 14:34:20.963133</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150485</t>
+          <t>2021-10-05 14:34:20.963135</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150487</t>
+          <t>2021-10-05 14:34:20.963137</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150489</t>
+          <t>2021-10-05 14:34:20.963139</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150492</t>
+          <t>2021-10-05 14:34:20.963141</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150494</t>
+          <t>2021-10-05 14:34:20.963143</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150497</t>
+          <t>2021-10-05 14:34:20.963146</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150499</t>
+          <t>2021-10-05 14:34:20.963148</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150501</t>
+          <t>2021-10-05 14:34:20.963150</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150504</t>
+          <t>2021-10-05 14:34:20.963152</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150506</t>
+          <t>2021-10-05 14:34:20.963154</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150508</t>
+          <t>2021-10-05 14:34:20.963157</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150511</t>
+          <t>2021-10-05 14:34:20.963159</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150513</t>
+          <t>2021-10-05 14:34:20.963161</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150515</t>
+          <t>2021-10-05 14:34:20.963163</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150518</t>
+          <t>2021-10-05 14:34:20.963166</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150520</t>
+          <t>2021-10-05 14:34:20.963168</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150523</t>
+          <t>2021-10-05 14:34:20.963170</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150525</t>
+          <t>2021-10-05 14:34:20.963172</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150528</t>
+          <t>2021-10-05 14:34:20.963175</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150530</t>
+          <t>2021-10-05 14:34:20.963177</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150532</t>
+          <t>2021-10-05 14:34:20.963179</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150534</t>
+          <t>2021-10-05 14:34:20.963181</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150537</t>
+          <t>2021-10-05 14:34:20.963183</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150539</t>
+          <t>2021-10-05 14:34:20.963186</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150542</t>
+          <t>2021-10-05 14:34:20.963188</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150544</t>
+          <t>2021-10-05 14:34:20.963190</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150546</t>
+          <t>2021-10-05 14:34:20.963192</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150549</t>
+          <t>2021-10-05 14:34:20.963194</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150551</t>
+          <t>2021-10-05 14:34:20.963196</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150554</t>
+          <t>2021-10-05 14:34:20.963199</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150556</t>
+          <t>2021-10-05 14:34:20.963201</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150558</t>
+          <t>2021-10-05 14:34:20.963203</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150561</t>
+          <t>2021-10-05 14:34:20.963205</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150564</t>
+          <t>2021-10-05 14:34:20.963207</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150566</t>
+          <t>2021-10-05 14:34:20.963209</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150583</t>
+          <t>2021-10-05 14:34:20.963212</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150620</t>
+          <t>2021-10-05 14:34:20.963214</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150623</t>
+          <t>2021-10-05 14:34:20.963216</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150650</t>
+          <t>2021-10-05 14:34:20.963218</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150661</t>
+          <t>2021-10-05 14:34:20.963222</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150665</t>
+          <t>2021-10-05 14:34:20.963224</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150668</t>
+          <t>2021-10-05 14:34:20.963226</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150670</t>
+          <t>2021-10-05 14:34:20.963229</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150672</t>
+          <t>2021-10-05 14:34:20.963231</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150675</t>
+          <t>2021-10-05 14:34:20.963233</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150677</t>
+          <t>2021-10-05 14:34:20.963235</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150680</t>
+          <t>2021-10-05 14:34:20.963237</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150682</t>
+          <t>2021-10-05 14:34:20.963239</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150684</t>
+          <t>2021-10-05 14:34:20.963242</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150687</t>
+          <t>2021-10-05 14:34:20.963244</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150689</t>
+          <t>2021-10-05 14:34:20.963246</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150691</t>
+          <t>2021-10-05 14:34:20.963248</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150694</t>
+          <t>2021-10-05 14:34:20.963250</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150696</t>
+          <t>2021-10-05 14:34:20.963253</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150699</t>
+          <t>2021-10-05 14:34:20.963255</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150701</t>
+          <t>2021-10-05 14:34:20.963257</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150704</t>
+          <t>2021-10-05 14:34:20.963259</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150706</t>
+          <t>2021-10-05 14:34:20.963262</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150708</t>
+          <t>2021-10-05 14:34:20.963264</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150711</t>
+          <t>2021-10-05 14:34:20.963266</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150713</t>
+          <t>2021-10-05 14:34:20.963269</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150716</t>
+          <t>2021-10-05 14:34:20.963271</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150718</t>
+          <t>2021-10-05 14:34:20.963273</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150721</t>
+          <t>2021-10-05 14:34:20.963275</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150723</t>
+          <t>2021-10-05 14:34:20.963277</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150726</t>
+          <t>2021-10-05 14:34:20.963279</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150728</t>
+          <t>2021-10-05 14:34:20.963281</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150731</t>
+          <t>2021-10-05 14:34:20.963284</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150734</t>
+          <t>2021-10-05 14:34:20.963286</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150737</t>
+          <t>2021-10-05 14:34:20.963288</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150739</t>
+          <t>2021-10-05 14:34:20.963290</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150741</t>
+          <t>2021-10-05 14:34:20.963293</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150744</t>
+          <t>2021-10-05 14:34:20.963295</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150746</t>
+          <t>2021-10-05 14:34:20.963297</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150749</t>
+          <t>2021-10-05 14:34:20.963299</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150751</t>
+          <t>2021-10-05 14:34:20.963301</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150753</t>
+          <t>2021-10-05 14:34:20.963304</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150756</t>
+          <t>2021-10-05 14:34:20.963306</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150758</t>
+          <t>2021-10-05 14:34:20.963308</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150760</t>
+          <t>2021-10-05 14:34:20.963310</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150763</t>
+          <t>2021-10-05 14:34:20.963312</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150765</t>
+          <t>2021-10-05 14:34:20.963314</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150767</t>
+          <t>2021-10-05 14:34:20.963317</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150770</t>
+          <t>2021-10-05 14:34:20.963319</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150772</t>
+          <t>2021-10-05 14:34:20.963321</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150774</t>
+          <t>2021-10-05 14:34:20.963323</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150777</t>
+          <t>2021-10-05 14:34:20.963325</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150779</t>
+          <t>2021-10-05 14:34:20.963327</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150781</t>
+          <t>2021-10-05 14:34:20.963329</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150784</t>
+          <t>2021-10-05 14:34:20.963332</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150786</t>
+          <t>2021-10-05 14:34:20.963334</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150788</t>
+          <t>2021-10-05 14:34:20.963336</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150791</t>
+          <t>2021-10-05 14:34:20.963339</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150793</t>
+          <t>2021-10-05 14:34:20.963341</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150795</t>
+          <t>2021-10-05 14:34:20.963343</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150798</t>
+          <t>2021-10-05 14:34:20.963345</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150800</t>
+          <t>2021-10-05 14:34:20.963347</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150803</t>
+          <t>2021-10-05 14:34:20.963350</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150805</t>
+          <t>2021-10-05 14:34:20.963352</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150808</t>
+          <t>2021-10-05 14:34:20.963356</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150811</t>
+          <t>2021-10-05 14:34:20.963358</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150813</t>
+          <t>2021-10-05 14:34:20.963361</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150816</t>
+          <t>2021-10-05 14:34:20.963363</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150818</t>
+          <t>2021-10-05 14:34:20.963365</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150820</t>
+          <t>2021-10-05 14:34:20.963367</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150823</t>
+          <t>2021-10-05 14:34:20.963370</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150825</t>
+          <t>2021-10-05 14:34:20.963372</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150827</t>
+          <t>2021-10-05 14:34:20.963374</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150830</t>
+          <t>2021-10-05 14:34:20.963376</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150832</t>
+          <t>2021-10-05 14:34:20.963379</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150835</t>
+          <t>2021-10-05 14:34:20.963381</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150837</t>
+          <t>2021-10-05 14:34:20.963383</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150840</t>
+          <t>2021-10-05 14:34:20.963385</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150842</t>
+          <t>2021-10-05 14:34:20.963387</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150845</t>
+          <t>2021-10-05 14:34:20.963390</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150847</t>
+          <t>2021-10-05 14:34:20.963392</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150850</t>
+          <t>2021-10-05 14:34:20.963394</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150852</t>
+          <t>2021-10-05 14:34:20.963396</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150854</t>
+          <t>2021-10-05 14:34:20.963398</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150857</t>
+          <t>2021-10-05 14:34:20.963400</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150859</t>
+          <t>2021-10-05 14:34:20.963403</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150861</t>
+          <t>2021-10-05 14:34:20.963405</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150864</t>
+          <t>2021-10-05 14:34:20.963407</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150866</t>
+          <t>2021-10-05 14:34:20.963409</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150869</t>
+          <t>2021-10-05 14:34:20.963411</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150871</t>
+          <t>2021-10-05 14:34:20.963414</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150873</t>
+          <t>2021-10-05 14:34:20.963416</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150876</t>
+          <t>2021-10-05 14:34:20.963418</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150878</t>
+          <t>2021-10-05 14:34:20.963420</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8347,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150880</t>
+          <t>2021-10-05 14:34:20.963422</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150883</t>
+          <t>2021-10-05 14:34:20.963425</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8407,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150885</t>
+          <t>2021-10-05 14:34:20.963427</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150887</t>
+          <t>2021-10-05 14:34:20.963429</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150890</t>
+          <t>2021-10-05 14:34:20.963431</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150892</t>
+          <t>2021-10-05 14:34:20.963434</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150895</t>
+          <t>2021-10-05 14:34:20.963436</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150897</t>
+          <t>2021-10-05 14:34:20.963438</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150900</t>
+          <t>2021-10-05 14:34:20.963441</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8617,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150902</t>
+          <t>2021-10-05 14:34:20.963443</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150904</t>
+          <t>2021-10-05 14:34:20.963445</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150907</t>
+          <t>2021-10-05 14:34:20.963447</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150909</t>
+          <t>2021-10-05 14:34:20.963449</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8737,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150912</t>
+          <t>2021-10-05 14:34:20.963452</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8767,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150914</t>
+          <t>2021-10-05 14:34:20.963454</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8797,91 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:28.150917</t>
+          <t>2021-10-05 14:34:20.963456</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Leukodystrophy_Superpanel</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3094</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.330</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-04T06:52:59.870082Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:34:20.959837</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/3094/?format=json</t>
         </is>
       </c>
     </row>
